--- a/1 - JANEIRO - 2025_limpa.xlsx
+++ b/1 - JANEIRO - 2025_limpa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayara.Cabral\Desktop\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78BFFEF-2138-4FA1-8382-0FB1F57104C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53740A21-896F-4C37-9EDD-0787BC80F0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8538,8 +8538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8550,6 +8550,15 @@
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
